--- a/src/Tesdata/citbankratecal.xlsx
+++ b/src/Tesdata/citbankratecal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91766\eclipse-workspace\JavaSeleniumProject\src\Tesdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD9061-3B4E-440A-9489-F642938B287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C341990-A9CE-4044-8522-685AE9ACF046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A61C6C4-4A4D-42C3-BB60-D187A046A323}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>$10,338.66</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -526,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
